--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25650" windowHeight="13610"/>
+    <workbookView windowHeight="18390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="161">
   <si>
     <t>成绩单</t>
   </si>
@@ -46,13 +46,472 @@
     <t>英语</t>
   </si>
   <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>王五</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>423fwe</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>324df</t>
+  </si>
+  <si>
+    <t>424fwe</t>
+  </si>
+  <si>
+    <t>325df</t>
+  </si>
+  <si>
+    <t>425fwe</t>
+  </si>
+  <si>
+    <t>326df</t>
+  </si>
+  <si>
+    <t>426fwe</t>
+  </si>
+  <si>
+    <t>327df</t>
+  </si>
+  <si>
+    <t>427fwe</t>
+  </si>
+  <si>
+    <t>328df</t>
+  </si>
+  <si>
+    <t>428fwe</t>
+  </si>
+  <si>
+    <t>329df</t>
+  </si>
+  <si>
+    <t>429fwe</t>
+  </si>
+  <si>
+    <t>330df</t>
+  </si>
+  <si>
+    <t>430fwe</t>
+  </si>
+  <si>
+    <t>331df</t>
+  </si>
+  <si>
+    <t>431fwe</t>
+  </si>
+  <si>
+    <t>332df</t>
+  </si>
+  <si>
+    <t>432fwe</t>
+  </si>
+  <si>
+    <t>333df</t>
+  </si>
+  <si>
+    <t>433fwe</t>
+  </si>
+  <si>
+    <t>334df</t>
+  </si>
+  <si>
+    <t>434fwe</t>
+  </si>
+  <si>
+    <t>335df</t>
+  </si>
+  <si>
+    <t>435fwe</t>
+  </si>
+  <si>
+    <t>336df</t>
+  </si>
+  <si>
+    <t>436fwe</t>
+  </si>
+  <si>
+    <t>337df</t>
+  </si>
+  <si>
+    <t>437fwe</t>
+  </si>
+  <si>
+    <t>338df</t>
+  </si>
+  <si>
+    <t>438fwe</t>
+  </si>
+  <si>
+    <t>339df</t>
+  </si>
+  <si>
+    <t>439fwe</t>
+  </si>
+  <si>
+    <t>340df</t>
+  </si>
+  <si>
+    <t>440fwe</t>
+  </si>
+  <si>
+    <t>341df</t>
+  </si>
+  <si>
+    <t>441fwe</t>
+  </si>
+  <si>
+    <t>342df</t>
+  </si>
+  <si>
+    <t>442fwe</t>
+  </si>
+  <si>
+    <t>343df</t>
+  </si>
+  <si>
+    <t>443fwe</t>
+  </si>
+  <si>
+    <t>344df</t>
+  </si>
+  <si>
+    <t>444fwe</t>
+  </si>
+  <si>
+    <t>345df</t>
+  </si>
+  <si>
+    <t>445fwe</t>
+  </si>
+  <si>
+    <t>346df</t>
+  </si>
+  <si>
+    <t>446fwe</t>
+  </si>
+  <si>
+    <t>347df</t>
+  </si>
+  <si>
+    <t>447fwe</t>
+  </si>
+  <si>
+    <t>348df</t>
+  </si>
+  <si>
+    <t>448fwe</t>
+  </si>
+  <si>
+    <t>349df</t>
+  </si>
+  <si>
+    <t>449fwe</t>
+  </si>
+  <si>
+    <t>350df</t>
+  </si>
+  <si>
+    <t>450fwe</t>
+  </si>
+  <si>
+    <t>351df</t>
+  </si>
+  <si>
+    <t>451fwe</t>
+  </si>
+  <si>
+    <t>352df</t>
+  </si>
+  <si>
+    <t>452fwe</t>
+  </si>
+  <si>
+    <t>353df</t>
+  </si>
+  <si>
+    <t>453fwe</t>
+  </si>
+  <si>
+    <t>354df</t>
+  </si>
+  <si>
+    <t>454fwe</t>
+  </si>
+  <si>
+    <t>355df</t>
+  </si>
+  <si>
+    <t>455fwe</t>
+  </si>
+  <si>
+    <t>356df</t>
+  </si>
+  <si>
+    <t>456fwe</t>
+  </si>
+  <si>
+    <t>357df</t>
+  </si>
+  <si>
+    <t>457fwe</t>
+  </si>
+  <si>
+    <t>358df</t>
+  </si>
+  <si>
+    <t>458fwe</t>
+  </si>
+  <si>
+    <t>359df</t>
+  </si>
+  <si>
+    <t>459fwe</t>
+  </si>
+  <si>
+    <t>360df</t>
+  </si>
+  <si>
+    <t>460fwe</t>
+  </si>
+  <si>
+    <t>361df</t>
+  </si>
+  <si>
+    <t>461fwe</t>
+  </si>
+  <si>
+    <t>362df</t>
+  </si>
+  <si>
+    <t>462fwe</t>
+  </si>
+  <si>
+    <t>363df</t>
+  </si>
+  <si>
+    <t>463fwe</t>
+  </si>
+  <si>
+    <t>364df</t>
+  </si>
+  <si>
+    <t>464fwe</t>
+  </si>
+  <si>
+    <t>365df</t>
+  </si>
+  <si>
+    <t>465fwe</t>
+  </si>
+  <si>
+    <t>366df</t>
+  </si>
+  <si>
+    <t>466fwe</t>
+  </si>
+  <si>
+    <t>367df</t>
+  </si>
+  <si>
+    <t>467fwe</t>
+  </si>
+  <si>
+    <t>368df</t>
+  </si>
+  <si>
+    <t>468fwe</t>
+  </si>
+  <si>
+    <t>369df</t>
+  </si>
+  <si>
+    <t>469fwe</t>
+  </si>
+  <si>
+    <t>370df</t>
+  </si>
+  <si>
+    <t>470fwe</t>
+  </si>
+  <si>
+    <t>371df</t>
+  </si>
+  <si>
+    <t>471fwe</t>
+  </si>
+  <si>
+    <t>372df</t>
+  </si>
+  <si>
+    <t>472fwe</t>
+  </si>
+  <si>
+    <t>373df</t>
+  </si>
+  <si>
+    <t>473fwe</t>
+  </si>
+  <si>
+    <t>374df</t>
+  </si>
+  <si>
+    <t>474fwe</t>
+  </si>
+  <si>
+    <t>375df</t>
+  </si>
+  <si>
+    <t>475fwe</t>
+  </si>
+  <si>
+    <t>376df</t>
+  </si>
+  <si>
+    <t>476fwe</t>
+  </si>
+  <si>
+    <t>377df</t>
+  </si>
+  <si>
+    <t>477fwe</t>
+  </si>
+  <si>
+    <t>378df</t>
+  </si>
+  <si>
+    <t>478fwe</t>
+  </si>
+  <si>
+    <t>379df</t>
+  </si>
+  <si>
+    <t>479fwe</t>
+  </si>
+  <si>
+    <t>380df</t>
+  </si>
+  <si>
+    <t>480fwe</t>
+  </si>
+  <si>
+    <t>381df</t>
+  </si>
+  <si>
+    <t>481fwe</t>
+  </si>
+  <si>
+    <t>382df</t>
+  </si>
+  <si>
+    <t>482fwe</t>
+  </si>
+  <si>
+    <t>383df</t>
+  </si>
+  <si>
+    <t>483fwe</t>
+  </si>
+  <si>
+    <t>384df</t>
+  </si>
+  <si>
+    <t>484fwe</t>
+  </si>
+  <si>
+    <t>385df</t>
+  </si>
+  <si>
+    <t>485fwe</t>
+  </si>
+  <si>
+    <t>386df</t>
+  </si>
+  <si>
+    <t>486fwe</t>
+  </si>
+  <si>
+    <t>387df</t>
+  </si>
+  <si>
+    <t>487fwe</t>
+  </si>
+  <si>
+    <t>388df</t>
+  </si>
+  <si>
+    <t>488fwe</t>
+  </si>
+  <si>
+    <t>389df</t>
+  </si>
+  <si>
+    <t>489fwe</t>
+  </si>
+  <si>
+    <t>390df</t>
+  </si>
+  <si>
+    <t>490fwe</t>
+  </si>
+  <si>
+    <t>391df</t>
+  </si>
+  <si>
+    <t>491fwe</t>
+  </si>
+  <si>
+    <t>392df</t>
+  </si>
+  <si>
+    <t>492fwe</t>
+  </si>
+  <si>
+    <t>393df</t>
+  </si>
+  <si>
+    <t>493fwe</t>
+  </si>
+  <si>
+    <t>394df</t>
+  </si>
+  <si>
+    <t>494fwe</t>
+  </si>
+  <si>
+    <t>395df</t>
+  </si>
+  <si>
+    <t>495fwe</t>
+  </si>
+  <si>
+    <t>396df</t>
+  </si>
+  <si>
+    <t>496fwe</t>
+  </si>
+  <si>
+    <t>397df</t>
+  </si>
+  <si>
+    <t>497fwe</t>
+  </si>
+  <si>
+    <t>398df</t>
+  </si>
+  <si>
+    <t>498fwe</t>
+  </si>
+  <si>
+    <t>399df</t>
+  </si>
+  <si>
+    <t>499fwe</t>
+  </si>
+  <si>
+    <t>400df</t>
   </si>
 </sst>
 </file>
@@ -1005,13 +1464,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1036,8 +1495,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+      <c r="A3" s="3">
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>324</v>
@@ -1050,8 +1509,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="3">
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>324</v>
@@ -1064,8 +1523,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
+      <c r="A5" s="3">
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>23</v>
@@ -1073,8 +1532,1086 @@
       <c r="C5" s="3">
         <v>54</v>
       </c>
-      <c r="D5" s="3">
-        <v>435</v>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
